--- a/content/blog/2022-03-01-Clean-Lipid_Names-2/Annotation.xlsx
+++ b/content/blog/2022-03-01-Clean-Lipid_Names-2/Annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaunty-blogdown\content\blog\2022-03-01-Clean-Lipid_Names-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D247E1-720E-4AD4-9600-4C64BC1B11A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1955E-D0CE-4475-B08F-45B121FBCB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6216" windowHeight="6852" xr2:uid="{B782973C-B63B-45B9-946A-0EAA227300F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Precursor Ion</t>
   </si>
@@ -48,16 +48,7 @@
     <t>TG 54:3  [SIM]</t>
   </si>
   <si>
-    <t>TG(O-50:2) [NL-18:2]</t>
-  </si>
-  <si>
-    <t>TG(O-50:2) [SIM]</t>
-  </si>
-  <si>
     <t>TG 54:3  [-18:1]</t>
-  </si>
-  <si>
-    <t>TG(O-50:2) [-18:1]</t>
   </si>
 </sst>
 </file>
@@ -124,8 +115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B09E4E23-22DF-4B8F-B7CA-9703E38204D8}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{669A7E1D-CE01-460F-BEEE-29991D990823}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B09E4E23-22DF-4B8F-B7CA-9703E38204D8}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{669A7E1D-CE01-460F-BEEE-29991D990823}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E20B83F1-A6D6-415B-B9BE-E6C771F7CCB4}" name="Given Name"/>
     <tableColumn id="3" xr3:uid="{607B8EFF-0F6B-4FEA-AD5A-123FB2D3032A}" name="Precursor Ion"/>
@@ -483,7 +474,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>902.8</v>
@@ -512,39 +503,6 @@
       </c>
       <c r="C6">
         <v>902.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>834.8</v>
-      </c>
-      <c r="C7">
-        <v>535.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>834.8</v>
-      </c>
-      <c r="C8">
-        <v>537.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>834.8</v>
-      </c>
-      <c r="C9">
-        <v>834.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
